--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T16:55:37+00:00</t>
+    <t>2021-10-07T17:11:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T17:11:40+00:00</t>
+    <t>2021-10-07T17:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T17:12:16+00:00</t>
+    <t>2021-10-07T20:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T20:30:30+00:00</t>
+    <t>2021-10-07T20:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T20:36:19+00:00</t>
+    <t>2021-10-07T20:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T20:36:43+00:00</t>
+    <t>2021-10-07T21:02:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:02:10+00:00</t>
+    <t>2021-10-07T21:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-napkon-immunosuppresive-medications.xlsx
+++ b/CodeSystem-napkon-immunosuppresive-medications.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T21:11:53+00:00</t>
+    <t>2021-10-07T21:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
